--- a/Reports/Repair/repair.xlsx
+++ b/Reports/Repair/repair.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Ubuntu\Clinical_Project\Reports\Repair\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8F5A60-EF38-4AA7-8E34-4FA9FBB36392}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Equipment_SN</t>
   </si>
@@ -46,38 +52,59 @@
     <t>Repair_Cost</t>
   </si>
   <si>
-    <t>E20</t>
-  </si>
-  <si>
-    <t>Hemodialysis</t>
-  </si>
-  <si>
-    <t>0014</t>
-  </si>
-  <si>
-    <t>Dialysis Unit</t>
-  </si>
-  <si>
-    <t>Amany</t>
-  </si>
-  <si>
-    <t>Filter</t>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>Beds</t>
+  </si>
+  <si>
+    <t>Ventiltors</t>
+  </si>
+  <si>
+    <t>0010</t>
+  </si>
+  <si>
+    <t>0007</t>
+  </si>
+  <si>
+    <t>Recovery</t>
+  </si>
+  <si>
+    <t>Automatic Not Response</t>
+  </si>
+  <si>
+    <t>Reading</t>
   </si>
   <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>Replace Filter</t>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Mina</t>
+  </si>
+  <si>
+    <t>Martina</t>
+  </si>
+  <si>
+    <t>Change Automatic System</t>
+  </si>
+  <si>
+    <t>Replacement</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,6 +168,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -187,7 +222,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -219,9 +254,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -253,6 +306,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -428,14 +499,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -467,7 +551,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -475,31 +559,66 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2">
+        <v>43962.416666666657</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="2">
-        <v>43984.41666666666</v>
-      </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2">
-        <v>150</v>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="2">
+        <v>43990.416666666657</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3">
+        <v>80000</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Repair/repair.xlsx
+++ b/Reports/Repair/repair.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Ubuntu\Clinical_Project\Reports\Repair\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Clinical_Project\Reports\Repair\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8F5A60-EF38-4AA7-8E34-4FA9FBB36392}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Equipment_SN</t>
   </si>
@@ -52,55 +51,34 @@
     <t>Repair_Cost</t>
   </si>
   <si>
-    <t>E10</t>
-  </si>
-  <si>
-    <t>E7</t>
-  </si>
-  <si>
-    <t>Beds</t>
-  </si>
-  <si>
-    <t>Ventiltors</t>
-  </si>
-  <si>
-    <t>0010</t>
-  </si>
-  <si>
-    <t>0007</t>
-  </si>
-  <si>
-    <t>Recovery</t>
-  </si>
-  <si>
-    <t>Automatic Not Response</t>
-  </si>
-  <si>
-    <t>Reading</t>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>Monitors</t>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>Operations</t>
+  </si>
+  <si>
+    <t>Power Cable Failure</t>
   </si>
   <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Mina</t>
-  </si>
-  <si>
-    <t>Martina</t>
-  </si>
-  <si>
-    <t>Change Automatic System</t>
-  </si>
-  <si>
-    <t>Replacement</t>
+    <t>Esraa</t>
+  </si>
+  <si>
+    <t>Change of Power Cable</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
@@ -255,23 +233,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -307,23 +268,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -499,23 +443,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -559,66 +502,31 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" s="2">
+        <v>43958.416666666657</v>
+      </c>
+      <c r="J2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="2">
-        <v>43962.416666666657</v>
-      </c>
-      <c r="J2" t="s">
-        <v>23</v>
-      </c>
       <c r="K2">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="2">
-        <v>43990.416666666657</v>
-      </c>
-      <c r="J3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3">
-        <v>80000</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
